--- a/predict_from_audio/long_audio.xlsx
+++ b/predict_from_audio/long_audio.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77.95340000000017</v>
+        <v>84.39599999999992</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.04049999999948</v>
+        <v>27.14280000000002</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>37.00039999999927</v>
+        <v>29.66840000000026</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>35.55080000000022</v>
+        <v>24.80459999999951</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -524,7 +524,39 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>38.18140000000003</v>
+        <v>29.13910000000008</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>25.13129999999997</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>26.52939999999937</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>25.55180000000057</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>33.42989999999979</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +576,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>89.48339999999976</v>
+        <v>88.14609999999945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -552,7 +584,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>39.0524000000001</v>
+        <v>29.96569999999998</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -560,7 +592,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>36.28410000000049</v>
+        <v>24.39339999999923</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -568,7 +600,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>35.92089999999981</v>
+        <v>24.26900000000032</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -576,7 +608,47 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>47.76690000000006</v>
+        <v>26.8903999999992</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>24.46570000000037</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>27.46570000000048</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>26.41500000000008</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>26.40270000000022</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>29.02870000000135</v>
       </c>
     </row>
     <row r="4">
@@ -596,7 +668,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>83.79069999999977</v>
+        <v>91.78879999999978</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -604,7 +676,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42.36299999999993</v>
+        <v>30.10330000000039</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -612,7 +684,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>36.26370000000012</v>
+        <v>28.12839999999994</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -620,7 +692,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>35.32430000000009</v>
+        <v>27.40999999999971</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -628,7 +700,39 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>44.21690000000034</v>
+        <v>24.58079999999896</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>24.17370000000041</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>25.39520000000017</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>24.09650000000063</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>31.43790000000024</v>
       </c>
     </row>
     <row r="5">
@@ -648,7 +752,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>83.85419999999932</v>
+        <v>84.64340000000092</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -656,7 +760,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>37.90140000000086</v>
+        <v>25.10569999999923</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -664,7 +768,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>38.05490000000056</v>
+        <v>25.79449999999994</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -672,7 +776,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>38.21059999999932</v>
+        <v>25.43370000000067</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -680,7 +784,47 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45.0848999999991</v>
+        <v>24.28350000000101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>31.20999999999974</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>26.71010000000074</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>26.74669999999857</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>24.64560000000127</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>28.52169999999887</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +844,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>97.0879</v>
+        <v>95.23629999999983</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -708,7 +852,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43.37319999999956</v>
+        <v>25.46809999999944</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -716,7 +860,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35.65629999999942</v>
+        <v>25.99430000000069</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -724,7 +868,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>36.41610000000028</v>
+        <v>24.56220000000009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -732,7 +876,55 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>54.73790000000101</v>
+        <v>26.1843000000006</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>25.52069999999951</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>25.54959999999973</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>24.58250000000106</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>24.88389999999896</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>26.52370000000026</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>29.03410000000051</v>
       </c>
     </row>
     <row r="7">
@@ -752,7 +944,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92.58129999999909</v>
+        <v>92.03310000000009</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -760,7 +952,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36.11450000000005</v>
+        <v>27.44110000000077</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -768,7 +960,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>37.30000000000011</v>
+        <v>26.78359999999991</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -776,7 +968,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>40.66860000000005</v>
+        <v>25.86240000000117</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -784,7 +976,39 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45.95459999999996</v>
+        <v>28.2979000000001</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>27.58140000000076</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>29.25339999999998</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>27.01219999999971</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>32.85619999999945</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +1028,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>89.62670000000017</v>
+        <v>92.771299999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -812,7 +1036,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39.75130000000071</v>
+        <v>28.32019999999957</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -820,15 +1044,15 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>38.41659999999969</v>
+        <v>26.20779999999989</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>39.3485000000009</v>
+        <v>27.53689999999942</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -836,7 +1060,39 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>38.36510000000004</v>
+        <v>27.54750000000072</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>26.42190000000078</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>26.79030000000004</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>24.88099999999882</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>32.78230000000093</v>
       </c>
     </row>
     <row r="9">
@@ -856,7 +1112,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89.71410000000013</v>
+        <v>84.66359999999895</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -864,7 +1120,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39.14000000000151</v>
+        <v>24.41169999999993</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -872,7 +1128,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>37.64780000000023</v>
+        <v>27.4321999999998</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -880,15 +1136,55 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>36.070500000001</v>
+        <v>26.37480000000103</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>48.70429999999892</v>
+        <v>25.42479999999969</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>25.40859999999867</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>25.15200000000029</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>24.18160000000036</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>28.19719999999926</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>33.85029999999922</v>
       </c>
     </row>
     <row r="10">
@@ -908,7 +1204,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>103.0518000000011</v>
+        <v>110.4392999999995</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -916,15 +1212,15 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>37.35539999999915</v>
+        <v>26.81890000000031</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>35.97609999999918</v>
+        <v>28.2934000000008</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -932,7 +1228,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>34.37190000000001</v>
+        <v>25.26570000000028</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -940,7 +1236,55 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60.48770000000125</v>
+        <v>26.85739999999903</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>25.43640000000025</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>28.85760000000026</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>27.36649999999941</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>25.9090999999998</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>27.80959999999943</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>33.5137999999997</v>
       </c>
     </row>
     <row r="11">
@@ -960,7 +1304,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82.04550000000133</v>
+        <v>76.1813999999994</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -968,7 +1312,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>34.76629999999936</v>
+        <v>28.8453999999998</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -976,7 +1320,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>36.76729999999928</v>
+        <v>24.94760000000085</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -984,7 +1328,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>37.32420000000047</v>
+        <v>27.62519999999924</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -992,7 +1336,39 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>41.28410000000038</v>
+        <v>29.11399999999986</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>27.58539999999954</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>26.93030000000007</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>29.12420000000004</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>32.88550000000079</v>
       </c>
     </row>
     <row r="12">
@@ -1012,7 +1388,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89.57610000000038</v>
+        <v>96.36609999999912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1020,7 +1396,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>38.29069999999923</v>
+        <v>26.42820000000157</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1028,7 +1404,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>40.00830000000022</v>
+        <v>26.90650000000083</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1036,7 +1412,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>35.11890000000051</v>
+        <v>28.04289999999909</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1044,7 +1420,47 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>44.66690000000106</v>
+        <v>24.69940000000115</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>26.89420000000098</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>26.38190000000051</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>29.24080000000018</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>26.2304000000011</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>37.65080000000154</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1480,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>93.92449999999997</v>
+        <v>109.2389999999988</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1072,7 +1488,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>36.35680000000008</v>
+        <v>23.88509999999933</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1080,7 +1496,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>41.3857999999987</v>
+        <v>24.84480000000033</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1088,7 +1504,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>35.04290000000054</v>
+        <v>24.33120000000066</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1096,7 +1512,55 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>59.1847000000012</v>
+        <v>27.31390000000111</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>27.11029999999859</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>24.39999999999998</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>25.64410000000095</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>24.8942999999997</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>25.16680000000093</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>29.15269999999914</v>
       </c>
     </row>
     <row r="14">
@@ -1116,7 +1580,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>88.85879999999879</v>
+        <v>85.58619999999983</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1124,7 +1588,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>37.27510000000045</v>
+        <v>26.35150000000053</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1132,7 +1596,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>38.86740000000088</v>
+        <v>24.5760999999991</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1140,7 +1604,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>36.54329999999995</v>
+        <v>23.34669999999939</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1148,7 +1612,47 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>51.36820000000064</v>
+        <v>24.7642999999993</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>23.29529999999913</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>23.37349999999994</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>27.09270000000075</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>25.54450000000053</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>29.72639999999949</v>
       </c>
     </row>
     <row r="15">
@@ -1168,7 +1672,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>86.1143000000002</v>
+        <v>88.87479999999925</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1176,7 +1680,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>38.05659999999911</v>
+        <v>26.16019999999963</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1184,7 +1688,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>40.18549999999976</v>
+        <v>25.66640000000042</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1192,7 +1696,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>34.45190000000053</v>
+        <v>23.62090000000094</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1200,7 +1704,47 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>44.37659999999966</v>
+        <v>26.48250000000019</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>31.8290999999995</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>25.68229999999971</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>32.55240000000015</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>24.92610000000006</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>31.22630000000015</v>
       </c>
     </row>
     <row r="16">
@@ -1220,7 +1764,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>86.19460000000068</v>
+        <v>78.93390000000089</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1228,7 +1772,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>35.81129999999888</v>
+        <v>23.89370000000035</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1236,23 +1780,63 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>35.02529999999915</v>
+        <v>24.92430000000034</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>34.86239999999974</v>
+        <v>25.65410000000057</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>42.37250000000081</v>
+        <v>23.5707000000005</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>23.31579999999889</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>26.22090000000021</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>25.50639999999937</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>23.2802999999997</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>24.19749999999965</v>
       </c>
     </row>
     <row r="17">
@@ -1272,7 +1856,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76.43260000000041</v>
+        <v>74.31749999999937</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1280,7 +1864,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>37.19979999999978</v>
+        <v>27.18059999999944</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1288,7 +1872,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>36.36629999999919</v>
+        <v>25.51349999999886</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1296,7 +1880,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>36.19160000000043</v>
+        <v>22.99870000000048</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1304,7 +1888,39 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>33.84110000000007</v>
+        <v>28.08499999999903</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>23.59509999999965</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>23.52819999999944</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>26.77259999999926</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>29.53330000000065</v>
       </c>
     </row>
     <row r="18">
@@ -1324,7 +1940,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>85.73129999999907</v>
+        <v>84.48639999999941</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1332,7 +1948,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36.18799999999922</v>
+        <v>25.29859999999928</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1340,7 +1956,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>34.93229999999947</v>
+        <v>23.97129999999947</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1348,7 +1964,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>38.60129999999984</v>
+        <v>25.54420000000057</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1356,7 +1972,47 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>47.29670000000041</v>
+        <v>25.90360000000125</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>26.66349999999973</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>27.41340000000037</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>28.2322999999991</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>32.58739999999882</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>27.85790000000077</v>
       </c>
     </row>
     <row r="19">
@@ -1376,7 +2032,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>96.28630000000094</v>
+        <v>97.59700000000038</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1384,7 +2040,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>38.00320000000035</v>
+        <v>25.62400000000054</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1392,7 +2048,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>36.25309999999971</v>
+        <v>23.47069999999896</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1400,7 +2056,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>33.81100000000004</v>
+        <v>23.40419999999988</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1408,7 +2064,55 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55.89259999999996</v>
+        <v>25.67189999999897</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>24.67560000000013</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>24.41850000000123</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>27.34399999999937</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>26.21159999999989</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>28.43969999999985</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>29.19550000000015</v>
       </c>
     </row>
     <row r="20">
@@ -1428,7 +2132,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80.85939999999958</v>
+        <v>79.03079999999996</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1436,31 +2140,63 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>34.76109999999899</v>
+        <v>24.89650000000054</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>36.25129999999999</v>
+        <v>27.429699999999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>33.64499999999992</v>
+        <v>23.4299999999994</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>36.47380000000133</v>
+        <v>23.09189999999894</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>24.65659999999836</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>25.22880000000072</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>23.29510000000035</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>29.16249999999998</v>
       </c>
     </row>
     <row r="21">
@@ -1480,7 +2216,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>105.0585000000002</v>
+        <v>105.5209000000001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1488,7 +2224,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>38.93880000000038</v>
+        <v>27.2161999999998</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1496,23 +2232,23 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>35.00870000000056</v>
+        <v>27.82129999999938</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>34.08690000000014</v>
+        <v>26.69560000000004</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>38.58029999999957</v>
+        <v>27.6253999999998</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1520,7 +2256,55 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>42.52720000000032</v>
+        <v>25.86709999999925</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>30.31840000000052</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>31.724800000001</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>23.30639999999917</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>25.16849999999948</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>30.62610000000099</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>26.22470000000021</v>
       </c>
     </row>
     <row r="22">
@@ -1540,7 +2324,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>89.16950000000057</v>
+        <v>91.37229999999974</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1548,7 +2332,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>36.585800000001</v>
+        <v>23.8448999999985</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1556,7 +2340,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>33.67300000000029</v>
+        <v>26.75230000000006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1564,7 +2348,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>33.91260000000074</v>
+        <v>25.29029999999999</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1572,7 +2356,47 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45.87219999999981</v>
+        <v>24.05650000000037</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>27.78969999999958</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>26.55689999999922</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>23.26109999999915</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>26.46079999999884</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>28.94380000000041</v>
       </c>
     </row>
     <row r="23">
@@ -1592,7 +2416,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>91.60480000000071</v>
+        <v>87.07580000000092</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1600,7 +2424,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>38.1589999999985</v>
+        <v>25.62140000000035</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1608,7 +2432,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>36.91110000000108</v>
+        <v>23.26859999999975</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1616,7 +2440,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>34.51920000000008</v>
+        <v>23.50140000000067</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1624,7 +2448,47 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>49.20480000000005</v>
+        <v>27.44600000000119</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>25.80239999999989</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>22.83159999999995</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>26.28499999999967</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>24.0519999999993</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>28.66490000000077</v>
       </c>
     </row>
     <row r="24">
@@ -1644,7 +2508,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>83.48529999999954</v>
+        <v>84.33690000000027</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1652,7 +2516,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>38.72259999999983</v>
+        <v>24.17400000000036</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1660,7 +2524,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>32.45129999999996</v>
+        <v>25.44149999999945</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1668,7 +2532,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>33.87959999999879</v>
+        <v>28.56360000000002</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1676,7 +2540,39 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>39.36779999999906</v>
+        <v>23.86680000000041</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>29.17039999999993</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>26.13090000000007</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>25.25570000000066</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>30.92629999999907</v>
       </c>
     </row>
     <row r="25">
@@ -1696,7 +2592,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>86.3934000000004</v>
+        <v>84.88149999999983</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1704,7 +2600,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>38.58939999999933</v>
+        <v>27.20369999999761</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1712,7 +2608,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>36.18190000000077</v>
+        <v>24.0058999999988</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1720,7 +2616,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>32.66230000000014</v>
+        <v>28.05239999999998</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1728,7 +2624,47 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>48.50470000000051</v>
+        <v>29.47900000000203</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>27.52499999999714</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>25.77700000000149</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>23.8391</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>24.99090000000237</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>36.36809999999713</v>
       </c>
     </row>
     <row r="26">
@@ -1748,15 +2684,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>90.37089999999992</v>
+        <v>87.20640000000301</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40.9828000000001</v>
+        <v>35.97620000000035</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1764,7 +2700,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>36.05770000000064</v>
+        <v>25.97250000000173</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1772,7 +2708,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>34.27330000000062</v>
+        <v>34.25859999999759</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1780,7 +2716,47 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>54.17609999999939</v>
+        <v>24.10770000000184</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>25.42970000000011</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>24.98910000000265</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>25.32409999999885</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>23.94689999999855</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>34.50739999999897</v>
       </c>
     </row>
     <row r="27">
@@ -1800,7 +2776,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>82.91799999999938</v>
+        <v>104.9413000000001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1808,7 +2784,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>39.11689999999979</v>
+        <v>27.13410000000138</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1816,7 +2792,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>38.88470000000055</v>
+        <v>30.19760000000105</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1824,7 +2800,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>34.78619999999921</v>
+        <v>30.78220000000087</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1832,7 +2808,39 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>38.33049999999893</v>
+        <v>27.44089999999844</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>27.2488000000024</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>26.20259999999774</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>25.98839999999925</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>36.38899999999978</v>
       </c>
     </row>
     <row r="28">
@@ -1852,7 +2860,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>102.6933999999997</v>
+        <v>93.91830000000212</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1860,7 +2868,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>41.11879999999957</v>
+        <v>27.31969999999961</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1868,7 +2876,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>34.64789999999951</v>
+        <v>23.6471999999992</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1876,7 +2884,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>33.25229999999912</v>
+        <v>25.7979000000006</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1884,7 +2892,55 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>58.01920000000038</v>
+        <v>25.8111999999997</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>26.45160000000146</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>27.76779999999945</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>31.05090000000033</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>23.95390000000219</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>25.82509999999871</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>35.29509999999902</v>
       </c>
     </row>
     <row r="29">
@@ -1904,7 +2960,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>84.27900000000044</v>
+        <v>78.0389000000028</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +2968,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>41.65310000000133</v>
+        <v>24.83940000000118</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1920,7 +2976,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>36.04810000000036</v>
+        <v>25.63770000000076</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1928,7 +2984,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>34.52719999999943</v>
+        <v>25.31150000000082</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1936,7 +2992,39 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>41.55309999999979</v>
+        <v>23.81300000000053</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>25.24329999999964</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>25.22490000000133</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>23.02079999999762</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>30.72489999999917</v>
       </c>
     </row>
     <row r="30">
@@ -1956,7 +3044,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81.06489999999944</v>
+        <v>83.63599999999849</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1964,7 +3052,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>37.5046999999995</v>
+        <v>30.22569999999902</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1972,7 +3060,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>35.92170000000117</v>
+        <v>24.1137000000009</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1980,7 +3068,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>39.54290000000071</v>
+        <v>32.25880000000103</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1988,7 +3076,39 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>37.03370000000028</v>
+        <v>24.87070000000102</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>22.99960000000212</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>25.4222999999989</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>25.88950000000168</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>31.41099999999852</v>
       </c>
     </row>
     <row r="31">
@@ -2008,7 +3128,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>87.13329999999964</v>
+        <v>79.4138999999987</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2016,7 +3136,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>38.65400000000108</v>
+        <v>27.63479999999774</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2024,7 +3144,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>36.84849999999962</v>
+        <v>25.52939999999992</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2032,7 +3152,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>39.90839999999984</v>
+        <v>26.54409999999885</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2040,7 +3160,47 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>47.73680000000091</v>
+        <v>25.27209999999869</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>23.14819999999784</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>26.35820000000066</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>26.33379999999974</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>25.67709999999934</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>26.67399999999986</v>
       </c>
     </row>
     <row r="32">
@@ -2060,7 +3220,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80.76110000000014</v>
+        <v>78.02129999999963</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2068,7 +3228,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>42.66099999999895</v>
+        <v>25.81329999999937</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2076,7 +3236,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>37.03110000000009</v>
+        <v>26.85789999999955</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2084,7 +3244,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>31.91290000000002</v>
+        <v>26.18649999999789</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2092,7 +3252,39 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>34.66229999999904</v>
+        <v>25.56339999999935</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>23.28490000000016</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>24.32029999999941</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>25.03169999999955</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>31.06100000000112</v>
       </c>
     </row>
     <row r="33">
@@ -2112,15 +3304,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>79.55070000000042</v>
+        <v>80.11189999999857</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>37.92050000000025</v>
+        <v>24.99969999999863</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2128,7 +3320,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>36.42310000000037</v>
+        <v>29.50489999999917</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2136,15 +3328,47 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>33.16400000000108</v>
+        <v>25.94950000000296</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40.82069999999938</v>
+        <v>29.80280000000235</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>30.08850000000152</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>24.35599999999738</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>34.94779999999764</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>33.11330000000012</v>
       </c>
     </row>
     <row r="34">
@@ -2164,7 +3388,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>92.67720000000068</v>
+        <v>118.3311000000025</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2172,7 +3396,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>41.57380000000011</v>
+        <v>26.26749999999944</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2180,7 +3404,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>33.57770000000038</v>
+        <v>30.10440000000258</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2188,7 +3412,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>40.37699999999944</v>
+        <v>25.68330000000074</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2196,7 +3420,47 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>53.48810000000093</v>
+        <v>23.83839999999893</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>23.53709999999865</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>25.27680000000032</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>25.59570000000022</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>26.01390000000237</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>29.672699999999</v>
       </c>
     </row>
     <row r="35">
@@ -2216,7 +3480,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>92.64109999999981</v>
+        <v>76.3910999999986</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2224,7 +3488,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>38.5781999999999</v>
+        <v>29.88820000000203</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2232,7 +3496,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>35.30150000000098</v>
+        <v>25.91209999999933</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2240,7 +3504,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>33.78870000000056</v>
+        <v>24.00739999999857</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2248,7 +3512,39 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>38.75850000000014</v>
+        <v>25.17890000000023</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>23.85890000000046</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>25.02349999999964</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>25.01050000000049</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>33.52539999999848</v>
       </c>
     </row>
     <row r="36">
@@ -2268,7 +3564,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>89.86139999999843</v>
+        <v>97.29979999999827</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2276,7 +3572,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>49.11749999999948</v>
+        <v>27.89950000000019</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2284,7 +3580,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>33.39530000000224</v>
+        <v>29.9859999999974</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2292,7 +3588,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>35.49649999999716</v>
+        <v>24.56860000000205</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2300,7 +3596,47 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>42.58439999999908</v>
+        <v>24.60519999999988</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>30.4690999999977</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>27.10330000000027</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>25.07400000000004</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>24.8033999999997</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>28.57910000000174</v>
       </c>
     </row>
     <row r="37">
@@ -2320,7 +3656,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>77.20289999999963</v>
+        <v>104.7699000000009</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2328,7 +3664,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>35.28880000000001</v>
+        <v>24.95139999999907</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2336,7 +3672,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>33.70319999999793</v>
+        <v>30.38610000000119</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2344,7 +3680,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>33.45270000000156</v>
+        <v>26.50110000000083</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2352,7 +3688,39 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35.99579999999847</v>
+        <v>26.51699999999835</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>33.21680000000171</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>24.67349999999868</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>27.55099999999899</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>29.66729999999984</v>
       </c>
     </row>
     <row r="38">
@@ -2372,7 +3740,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>82.96759999999992</v>
+        <v>76.36049999999983</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2380,7 +3748,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>37.96249999999901</v>
+        <v>28.65219999999979</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2388,7 +3756,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>34.52039999999812</v>
+        <v>26.56550000000024</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2396,7 +3764,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>33.8302999999982</v>
+        <v>26.45060000000043</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2404,7 +3772,39 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>36.03439999999836</v>
+        <v>26.3124000000019</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>29.8439999999971</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>28.18650000000034</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>30.12000000000015</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>37.62940000000015</v>
       </c>
     </row>
     <row r="39">
@@ -2424,7 +3824,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>82.56839999999954</v>
+        <v>96.75250000000091</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2432,7 +3832,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>37.56979999999999</v>
+        <v>27.87509999999926</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2440,7 +3840,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>33.20420000000013</v>
+        <v>32.84359999999964</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2448,7 +3848,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>34.9644999999974</v>
+        <v>30.79429999999661</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2456,7 +3856,39 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>38.1300999999965</v>
+        <v>28.96829999999895</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>28.48499999999987</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>29.20750000000183</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>33.92549999999872</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>44.45499999999925</v>
       </c>
     </row>
     <row r="40">
@@ -2476,7 +3908,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>86.37739999999994</v>
+        <v>86.21390000000062</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2484,7 +3916,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>38.54690000000005</v>
+        <v>35.72639999999794</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2492,7 +3924,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>34.04239999999703</v>
+        <v>30.60789999999969</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2500,7 +3932,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>38.62270000000123</v>
+        <v>31.47399999999934</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2508,7 +3940,39 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>39.39000000000092</v>
+        <v>28.06700000000006</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>27.47289999999936</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>29.42420000000112</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>34.66999999999842</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>37.34989999999883</v>
       </c>
     </row>
     <row r="41">
@@ -2528,7 +3992,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>77.00880000000154</v>
+        <v>100.4258999999976</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2536,7 +4000,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>35.81549999999822</v>
+        <v>26.11000000000274</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2544,7 +4008,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>34.46450000000212</v>
+        <v>30.22659999999888</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2552,7 +4016,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>34.72710000000134</v>
+        <v>26.41209999999816</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2560,7 +4024,39 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>39.58069999999836</v>
+        <v>25.24400000000071</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>28.16439999999787</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>31.39399999999881</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>30.9671999999992</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>36.56870000000012</v>
       </c>
     </row>
     <row r="42">
@@ -2580,7 +4076,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>85.19429999999772</v>
+        <v>109.2613999999976</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2588,7 +4084,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>45.95389999999711</v>
+        <v>40.40850000000162</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2596,7 +4092,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>38.02079999999819</v>
+        <v>31.59740000000255</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2604,7 +4100,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>33.26540000000122</v>
+        <v>26.12610000000259</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2612,7 +4108,39 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>32.95179999999931</v>
+        <v>28.2398999999991</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>32.9285999999982</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>28.96610000000166</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>33.67030000000071</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>33.15219999999997</v>
       </c>
     </row>
     <row r="43">
@@ -2632,7 +4160,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>87.29639999999961</v>
+        <v>100.5956999999995</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2640,23 +4168,23 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>36.73999999999822</v>
+        <v>29.82330000000033</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>35.19299999999959</v>
+        <v>27.22789999999975</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>34.30700000000186</v>
+        <v>27.18619999999916</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2664,7 +4192,47 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>46.69239999999775</v>
+        <v>28.15599999999918</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>29.06459999999811</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>26.7520999999995</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>27.94749999999979</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>28.05809999999909</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>29.70309999999898</v>
       </c>
     </row>
     <row r="44">
@@ -2684,7 +4252,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>93.29289999999801</v>
+        <v>92.23850000000056</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2692,7 +4260,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>37.35070000000107</v>
+        <v>28.24329999999975</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2700,7 +4268,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>37.59999999999764</v>
+        <v>28.64980000000017</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2708,15 +4276,55 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>33.35009999999983</v>
+        <v>32.72440000000287</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>45.95130000000225</v>
+        <v>28.03920000000204</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>27.46649999999917</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>27.13370000000026</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>24.31439999999796</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>24.48090000000036</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>26.35709999999847</v>
       </c>
     </row>
     <row r="45">
@@ -2736,7 +4344,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>126.3638</v>
+        <v>142.2440999999992</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2744,7 +4352,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>35.39560000000108</v>
+        <v>26.22110000000077</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2752,7 +4360,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>34.4703000000024</v>
+        <v>28.96690000000035</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2760,7 +4368,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>34.25179999999983</v>
+        <v>26.41500000000008</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2768,7 +4376,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>34.98819999999725</v>
+        <v>25.96439999999944</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2776,7 +4384,7 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>33.53530000000049</v>
+        <v>26.1850999999993</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -2784,7 +4392,71 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>42.78529999999847</v>
+        <v>24.55690000000033</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>25.66510000000122</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>24.27580000000162</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>26.11020000000153</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>26.55439999999842</v>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AA45" t="n">
+        <v>24.96920000000102</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>23.96979999999971</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
+        <v>34.13300000000064</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AG45" t="n">
+        <v>27.71629999999803</v>
       </c>
     </row>
     <row r="46">
@@ -2804,7 +4476,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>81.96060000000216</v>
+        <v>85.89569999999824</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2812,7 +4484,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>36.05890000000045</v>
+        <v>24.71570000000156</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2820,7 +4492,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>34.66640000000254</v>
+        <v>26.18449999999939</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2828,7 +4500,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>34.15869999999899</v>
+        <v>27.31629999999896</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2836,7 +4508,39 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>35.74869999999919</v>
+        <v>30.31519999999688</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>25.05320000000211</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>32.5575000000029</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>31.83879999999917</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>42.54710000000017</v>
       </c>
     </row>
     <row r="47">
@@ -2856,7 +4560,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>86.4245999999973</v>
+        <v>98.22910000000107</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2864,7 +4568,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>38.2914999999997</v>
+        <v>29.67629999999843</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2872,7 +4576,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>34.60680000000238</v>
+        <v>25.73890000000034</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2880,7 +4584,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>35.1721999999981</v>
+        <v>26.20029999999929</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2888,7 +4592,47 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>43.73049999999878</v>
+        <v>26.12900000000096</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>29.84509999999929</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>28.08560000000071</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>25.91440000000134</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>27.24939999999876</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>24.99780000000129</v>
       </c>
     </row>
     <row r="48">
@@ -2908,7 +4652,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>82.81549999999882</v>
+        <v>78.77140000000082</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2916,7 +4660,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>41.3642000000003</v>
+        <v>29.43720000000027</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2924,7 +4668,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>38.22540000000174</v>
+        <v>29.0335000000006</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2932,7 +4676,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>34.06040000000132</v>
+        <v>25.59110000000331</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2940,7 +4684,39 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>37.19710000000021</v>
+        <v>32.46929999999892</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>24.55939999999757</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>27.4940000000008</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>25.51479999999984</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>30.98969999999923</v>
       </c>
     </row>
     <row r="49">
@@ -2960,7 +4736,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>92.83029999999926</v>
+        <v>92.238499999997</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2968,7 +4744,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>39.54110000000099</v>
+        <v>29.91970000000066</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2976,7 +4752,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>36.78479999999951</v>
+        <v>30.41929999999837</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2984,7 +4760,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>39.25190000000001</v>
+        <v>34.2784000000016</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2992,7 +4768,55 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>58.35219999999808</v>
+        <v>28.70760000000061</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>26.19649999999751</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>27.55559999999946</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>26.88320000000033</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>26.66830000000076</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>29.29150000000291</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
+        <v>28.65040000000008</v>
       </c>
     </row>
     <row r="50">
@@ -3012,7 +4836,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>90.85560000000115</v>
+        <v>116.9264999999982</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3020,7 +4844,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>35.94740000000129</v>
+        <v>26.97679999999991</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3028,7 +4852,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>35.04089999999849</v>
+        <v>26.03450000000151</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3036,7 +4860,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>34.43019999999919</v>
+        <v>25.76200000000028</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3044,7 +4868,47 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>52.93819999999982</v>
+        <v>27.2609000000017</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>24.34320000000056</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>26.50050000000093</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>26.08489999999719</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>25.75649999999996</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>33.2776999999993</v>
       </c>
     </row>
     <row r="51">
@@ -3064,7 +4928,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>80.31810000000306</v>
+        <v>83.83060000000242</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3072,15 +4936,15 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>36.48009999999857</v>
+        <v>26.62250000000199</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>33.88380000000168</v>
+        <v>27.30100000000135</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3088,7 +4952,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>38.42960000000062</v>
+        <v>27.92840000000041</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3096,7 +4960,39 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>43.07860000000119</v>
+        <v>27.58910000000014</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>29.21290000000099</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>28.15500000000171</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>26.53640000000124</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>31.84470000000061</v>
       </c>
     </row>
     <row r="52">
@@ -3116,7 +5012,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>96.59880000000243</v>
+        <v>88.36200000000005</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3124,7 +5020,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>51.49589999999904</v>
+        <v>28.75199999999722</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3132,7 +5028,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>43.16199999999881</v>
+        <v>26.35120000000057</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3140,15 +5036,55 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>66.46119999999911</v>
+        <v>25.43580000000034</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50.74809999999985</v>
+        <v>26.5537000000009</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>26.35589999999866</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>26.96550000000286</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>24.38439999999886</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>29.70279999999903</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>40.70859999999854</v>
       </c>
     </row>
     <row r="53">
@@ -3168,7 +5104,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>121.1088999999994</v>
+        <v>104.2494999999981</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3176,23 +5112,23 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>37.55389999999892</v>
+        <v>30.25519999999915</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>35.94440000000176</v>
+        <v>25.69430000000139</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>35.58560000000099</v>
+        <v>28.43939999999989</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3200,15 +5136,63 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>37.47350000000083</v>
+        <v>24.88370000000018</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>46.82580000000058</v>
+        <v>32.17899999999929</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>26.03870000000086</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>30.96960000000237</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>30.99780000000152</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>30.23119999999935</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y53" t="n">
+        <v>25.41649999999862</v>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AA53" t="n">
+        <v>31.18479999999835</v>
       </c>
     </row>
     <row r="54">
@@ -3228,7 +5212,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>86.46249999999966</v>
+        <v>90.16159999999829</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3236,7 +5220,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>36.96359999999999</v>
+        <v>25.85880000000174</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3244,7 +5228,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>36.01070000000206</v>
+        <v>24.66929999999934</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3252,7 +5236,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>36.0340999999984</v>
+        <v>27.43260000000092</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3260,7 +5244,39 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>37.63100000000108</v>
+        <v>24.59340000000054</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>24.85569999999981</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>24.13069999999706</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>24.38859999999821</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>30.88080000000204</v>
       </c>
     </row>
     <row r="55">
@@ -3280,7 +5296,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>92.04989999999924</v>
+        <v>119.6561000000003</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3288,23 +5304,23 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>41.69089999999898</v>
+        <v>28.3514000000018</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>35.76669999999993</v>
+        <v>24.53219999999945</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>36.13319999999831</v>
+        <v>24.62909999999852</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3312,7 +5328,39 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>42.88179999999997</v>
+        <v>24.46919999999864</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>29.51089999999823</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>26.48179999999911</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>24.1562999999978</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>33.4393999999989</v>
       </c>
     </row>
     <row r="56">
@@ -3332,7 +5380,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>109.1298999999992</v>
+        <v>92.78630000000021</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3340,7 +5388,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>36.11800000000187</v>
+        <v>23.84990000000187</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3348,7 +5396,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>34.66149999999857</v>
+        <v>26.43660000000025</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3356,7 +5404,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>33.96610000000067</v>
+        <v>27.11259999999882</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3364,7 +5412,55 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>61.85340000000039</v>
+        <v>31.95329999999785</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>27.98759999999945</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>24.99309999999966</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>24.20890000000142</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>24.98920000000027</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>25.83710000000039</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y56" t="n">
+        <v>32.17979999999798</v>
       </c>
     </row>
     <row r="57">
@@ -3384,7 +5480,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>78.71640000000113</v>
+        <v>77.5825999999995</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3392,7 +5488,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>35.41560000000032</v>
+        <v>28.09419999999818</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3400,7 +5496,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>35.70009999999968</v>
+        <v>25.43260000000203</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3408,7 +5504,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>35.09760000000028</v>
+        <v>24.1390999999993</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3416,7 +5512,39 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>34.73140000000186</v>
+        <v>23.82240000000024</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>23.98469999999975</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>26.60410000000013</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>26.69079999999724</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>32.72160000000213</v>
       </c>
     </row>
     <row r="58">
@@ -3436,7 +5564,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>78.82329999999982</v>
+        <v>91.18280000000212</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3444,31 +5572,63 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>34.27299999999889</v>
+        <v>24.98339999999999</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>35.1019000000008</v>
+        <v>24.31789999999978</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>32.97540000000154</v>
+        <v>25.00020000000092</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>33.60310000000055</v>
+        <v>26.51020000000059</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>30.53840000000108</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>23.84960000000191</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>26.43330000000077</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>30.68599999999932</v>
       </c>
     </row>
     <row r="59">
@@ -3488,7 +5648,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>95.42100000000175</v>
+        <v>89.59670000000131</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3496,7 +5656,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>35.82950000000196</v>
+        <v>33.20379999999901</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3504,7 +5664,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>35.28920000000113</v>
+        <v>26.73590000000203</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3512,7 +5672,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>35.23949999999942</v>
+        <v>24.40220000000082</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3520,7 +5680,55 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>58.82829999999828</v>
+        <v>24.87149999999971</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>24.1819999999997</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>26.84570000000264</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>26.59470000000042</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>24.85710000000196</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>24.55219999999869</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
+        <v>31.57440000000022</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +5748,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>81.47959999999799</v>
+        <v>120.3383000000002</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3548,7 +5756,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>38.10050000000231</v>
+        <v>26.1029999999991</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3556,7 +5764,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>33.81239999999863</v>
+        <v>24.66000000000079</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3564,7 +5772,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>32.82860000000198</v>
+        <v>24.497199999999</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3572,7 +5780,47 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>43.47749999999806</v>
+        <v>23.90060000000105</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>27.79230000000155</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>25.18819999999877</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>25.97929999999948</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>26.30180000000237</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>28.4721999999995</v>
       </c>
     </row>
     <row r="61">
@@ -3592,7 +5840,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>99.52979999999911</v>
+        <v>93.79399999999904</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3600,7 +5848,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>34.92400000000018</v>
+        <v>24.35200000000037</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3608,7 +5856,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>33.29270000000051</v>
+        <v>33.62269999999867</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3616,7 +5864,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>33.02870000000269</v>
+        <v>25.37849999999864</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3624,7 +5872,47 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>44.64869999999976</v>
+        <v>25.52169999999876</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>26.3315999999989</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>24.17050000000032</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>32.43799999999908</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>25.0054999999989</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>29.82130000000183</v>
       </c>
     </row>
     <row r="62">
@@ -3644,7 +5932,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>80.37909999999826</v>
+        <v>78.96309999999929</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3652,7 +5940,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>36.76379999999924</v>
+        <v>27.1279999999976</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3660,7 +5948,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>34.91209999999967</v>
+        <v>29.98469999999998</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3668,7 +5956,7 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>35.57699999999997</v>
+        <v>26.97780000000094</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3676,7 +5964,39 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>35.20450000000253</v>
+        <v>26.14180000000133</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>25.31700000000114</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>24.93319999999954</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>23.97660000000101</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>30.0344999999993</v>
       </c>
     </row>
   </sheetData>
